--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>-0.0001817237498471513</v>
+        <v>0.1051691621541977</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>-0.0001156208745669574</v>
+        <v>0.001854116795584559</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.000554985657799989</v>
+        <v>7.625831585755805E-06</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>2.363752841949463</v>
+        <v>-3.826057582045905E-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>2.822266101837158</v>
+        <v>-3.786828892771155E-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>2.361650228500366</v>
+        <v>-4.06792969442904E-05</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.173640966415405</v>
+        <v>1.712878656690009E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.150332927703857</v>
+        <v>0.000104682199889794</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1.901238679885864</v>
+        <v>0.000104682199889794</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1.458559036254883</v>
+        <v>0.000104682199889794</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.9023810625076294</v>
+        <v>0.0003636604233179241</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.2934904992580414</v>
+        <v>0.05119337886571884</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.03273991495370865</v>
+        <v>0.4779742658138275</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-6.315988684946205E-06</v>
+        <v>1.097389698028564</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>8.658209117129445E-05</v>
+        <v>1.827260136604309</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>8.658209117129445E-05</v>
+        <v>2.41700005531311</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>9.370442421641201E-05</v>
+        <v>2.781635284423828</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.0005092542269267142</v>
+        <v>2.695141553878784</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0.0007170434691943228</v>
+        <v>2.116500854492188</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.0004023133951704949</v>
+        <v>1.585410118103027</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>-6.18683043285273E-06</v>
+        <v>1.226071715354919</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>2.288378709636163E-06</v>
+        <v>0.9532541036605835</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.08825208991765976</v>
+        <v>0.6231693029403687</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0.5294868946075439</v>
+        <v>0.2437762171030045</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>1.130032181739807</v>
+        <v>0.06730973720550537</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>1.792790412902832</v>
+        <v>0.001730885007418692</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>2.355429887771606</v>
+        <v>-5.373139629227808E-06</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>2.700779914855957</v>
+        <v>-5.04383706356748E-06</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>2.836971521377563</v>
+        <v>7.114081654435722E-06</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>2.77369236946106</v>
+        <v>7.114081654435722E-06</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>2.623674631118774</v>
+        <v>6.493760156445205E-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>2.238699674606323</v>
+        <v>6.271792517509311E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>1.71220076084137</v>
+        <v>8.227144280681387E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1.067434668540955</v>
+        <v>7.877451571403071E-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0.6211084723472595</v>
+        <v>5.909514948143624E-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.2224987596273422</v>
+        <v>0.02898633666336536</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.02541939541697502</v>
+        <v>0.2031785249710083</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>0.0007673288346268237</v>
+        <v>0.3540155291557312</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.000514020852278918</v>
+        <v>0.5759734511375427</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>-0.000128706989926286</v>
+        <v>0.8331801295280457</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.000462350231828168</v>
+        <v>1.054468035697937</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>0.0005516608944162726</v>
+        <v>1.296419858932495</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>0.000602003070525825</v>
+        <v>1.509253740310669</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>0.0003884969337377697</v>
+        <v>1.617047786712646</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>0.0004697951080743223</v>
+        <v>1.5212162733078</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>0.0004303466703277081</v>
+        <v>1.430046677589417</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.04898718744516373</v>
+        <v>1.092720031738281</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0.3899039328098297</v>
+        <v>0.5343926548957825</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0.8766809701919556</v>
+        <v>0.1391320079565048</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>1.536402940750122</v>
+        <v>0.001599808223545551</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>1.966141223907471</v>
+        <v>4.611551048583351E-05</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>2.097707748413086</v>
+        <v>1.164116201834986E-05</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>1.887072801589966</v>
+        <v>3.371659477124922E-05</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>1.701266169548035</v>
+        <v>3.238204590161331E-05</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1.502571225166321</v>
+        <v>2.711795241339132E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1.208357572555542</v>
+        <v>-3.750135147129185E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.9063936471939087</v>
+        <v>5.500002657754521E-07</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0.5730875134468079</v>
+        <v>5.500002657754521E-07</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.3147890567779541</v>
+        <v>5.956592303846264E-06</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.141046330332756</v>
+        <v>0.06289558112621307</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.01468760054558516</v>
+        <v>0.5758152008056641</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>3.12083693643217E-06</v>
+        <v>1.289865255355835</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>-2.089494228130206E-05</v>
+        <v>1.964664816856384</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>-3.834774133792962E-07</v>
+        <v>2.745500802993774</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0.0001536855270387605</v>
+        <v>2.979405403137207</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>0.000655281008221209</v>
+        <v>2.971920013427734</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>0.0005457947263494134</v>
+        <v>2.962167024612427</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>0.0002708706306293607</v>
+        <v>2.853438377380371</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>0.000581214961130172</v>
+        <v>2.583150148391724</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>0.000541767047252506</v>
+        <v>1.835370302200317</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.05430186167359352</v>
+        <v>1.1136634349823</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0.4322949051856995</v>
+        <v>0.4900704622268677</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.9548856616020203</v>
+        <v>0.1521753221750259</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>1.625020265579224</v>
+        <v>0.005091514904052019</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>2.131851434707642</v>
+        <v>-0.0001596477086422965</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>2.488680601119995</v>
+        <v>4.848421326641983E-07</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>2.708086967468262</v>
+        <v>-1.191404862765921E-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>2.741402149200439</v>
+        <v>-1.191404862765921E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>2.739120006561279</v>
+        <v>-2.184611730626784E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>2.504460096359253</v>
+        <v>-2.184611730626784E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>2.07297945022583</v>
+        <v>-2.184611730626784E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>1.47142231464386</v>
+        <v>-2.184611730626784E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0.8225861191749573</v>
+        <v>-1.643951691221446E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.2297156900167465</v>
+        <v>0.0857929140329361</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.01981661841273308</v>
+        <v>0.6150438785552979</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.0006468908977694809</v>
+        <v>1.310117363929749</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>-0.0001161564723588526</v>
+        <v>2.03444504737854</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>-6.509771083074156E-06</v>
+        <v>2.702399730682373</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0.000126814135001041</v>
+        <v>2.958525419235229</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0.0005398899666033685</v>
+        <v>2.972449064254761</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>0.0004330898518674076</v>
+        <v>2.988135099411011</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>0.0004939084174111485</v>
+        <v>2.923500776290894</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>0.0003909995139110833</v>
+        <v>2.687363147735596</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>0.000399474665755406</v>
+        <v>2.128325700759888</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>0.06582196056842804</v>
+        <v>1.457193851470947</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>0.4883199632167816</v>
+        <v>0.7451821565628052</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>1.064434885978699</v>
+        <v>0.1421093642711639</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99">
-        <v>1.74085795879364</v>
+        <v>0.004009208176285028</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>2.34267520904541</v>
+        <v>2.072476854664274E-05</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>2.614159345626831</v>
+        <v>1.938848436111584E-05</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>2.767545938491821</v>
+        <v>1.938848436111584E-05</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C103">
-        <v>2.655290365219116</v>
+        <v>1.891885403892957E-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>2.34325098991394</v>
+        <v>1.340131257165922E-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>1.995721220970154</v>
+        <v>1.79164380824659E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>1.599192142486572</v>
+        <v>1.79164380824659E-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>1.042846202850342</v>
+        <v>1.79164380824659E-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.603901207447052</v>
+        <v>2.231936377938837E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.2382181137800217</v>
+        <v>0.06465455889701843</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.02330585941672325</v>
+        <v>0.4571612775325775</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>-0.001853676396422088</v>
+        <v>0.9385064840316772</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.000488004443468526</v>
+        <v>1.53884494304657</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>0.0004263775772415102</v>
+        <v>2.138576984405518</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>0.0005955324159003794</v>
+        <v>2.622581958770752</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0.0008244079072028399</v>
+        <v>2.657693147659302</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>0.0004589638265315443</v>
+        <v>2.444720268249512</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>0.0009483001194894314</v>
+        <v>1.990199446678162</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>0.0007859832257963717</v>
+        <v>1.672999143600464</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>0.000292855518637225</v>
+        <v>1.386734843254089</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0.06157518923282623</v>
+        <v>0.904876172542572</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>0.4517466127872467</v>
+        <v>0.4852526187896729</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>1.055020213127136</v>
+        <v>0.09596117585897446</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>1.719407320022583</v>
+        <v>0.004607429727911949</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>2.240124940872192</v>
+        <v>-6.839056732133031E-05</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>2.563425540924072</v>
+        <v>-5.668688027071767E-05</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>2.725619316101074</v>
+        <v>-5.668688027071767E-05</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>2.799637079238892</v>
+        <v>-4.164350320934318E-05</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>2.679717302322388</v>
+        <v>4.186861769994721E-05</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>2.424251794815063</v>
+        <v>4.186861769994721E-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>1.886625647544861</v>
+        <v>4.186861769994721E-05</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>1.300716519355774</v>
+        <v>3.669653960969299E-05</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0.7129672169685364</v>
+        <v>9.769499592948705E-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>0.2297776490449905</v>
+        <v>0.06485839933156967</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>0.02165132947266102</v>
+        <v>0.4606450200080872</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>-0.0001990444434341043</v>
+        <v>0.9817102551460266</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>-0.00204800721257925</v>
+        <v>1.562387704849243</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>0.0003411606885492802</v>
+        <v>2.123883247375488</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>0.001322997733950615</v>
+        <v>2.618802785873413</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>0.00155187351629138</v>
+        <v>2.859809160232544</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>0.0007741650915704668</v>
+        <v>2.803686618804932</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.000723110802937299</v>
+        <v>2.668882846832275</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0.0005440325476229191</v>
+        <v>2.292035818099976</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>0.0005842876271344721</v>
+        <v>1.771916389465332</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>0.05928225070238113</v>
+        <v>1.114296793937683</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>0.4531138241291046</v>
+        <v>0.4966005682945251</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>1.046366810798645</v>
+        <v>0.1712144017219543</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>1.67356812953949</v>
+        <v>0.004331754986196756</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>2.204397201538086</v>
+        <v>-2.032780685112812E-05</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>2.532313108444214</v>
+        <v>6.500361564576451E-07</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>2.725619316101074</v>
+        <v>-2.926578645201516E-06</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>2.804185628890991</v>
+        <v>-1.265110313397599E-05</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>2.693967342376709</v>
+        <v>-1.04352957350784E-05</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>2.472476720809937</v>
+        <v>-9.965669050870929E-06</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>2.017676591873169</v>
+        <v>3.955476495320909E-05</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>1.411131978034973</v>
+        <v>3.955476495320909E-05</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.7675947546958923</v>
+        <v>0.0001363320916425437</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.2386968582868576</v>
+        <v>0.08119054883718491</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>0.02201872505247593</v>
+        <v>0.5266682505607605</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>-0.0002214476262452081</v>
+        <v>1.261948585510254</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>-0.002117394004017115</v>
+        <v>1.883165717124939</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>0.0003411606885492802</v>
+        <v>2.478707313537598</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0.001322997733950615</v>
+        <v>2.867304801940918</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.00155187351629138</v>
+        <v>2.957941293716431</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>0.0007741650915704668</v>
+        <v>2.969788074493408</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>0.000664396386127919</v>
+        <v>2.879462957382202</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>0.0007859832257963717</v>
+        <v>2.580418348312378</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>0.0005842876271344721</v>
+        <v>1.964043021202087</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>0.05928225070238113</v>
+        <v>1.291733264923096</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0.452475905418396</v>
+        <v>0.671326220035553</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>1.044079303741455</v>
+        <v>0.2078617513179779</v>
       </c>
     </row>
   </sheetData>
